--- a/data/2025/ShiftCalendar_2025_Q2.xlsx
+++ b/data/2025/ShiftCalendar_2025_Q2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$106</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,10 +41,41 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="67">
   <si>
+    <t>Q2'2025</t>
+  </si>
+  <si>
     <t>APR</t>
   </si>
   <si>
     <t>WW</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="24"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="24"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>123</t>
+    </r>
   </si>
   <si>
     <t>Public Holiday (PH)</t>
@@ -66,6 +97,34 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="24"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="24"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>123</t>
+    </r>
   </si>
   <si>
     <t>Replacement Public Holiday (RPH)</t>
@@ -191,80 +250,6 @@
     <t>B3</t>
   </si>
   <si>
-    <t>CC,AA</t>
-  </si>
-  <si>
-    <t>DD,BB</t>
-  </si>
-  <si>
-    <t>CD,AB</t>
-  </si>
-  <si>
-    <t>MAY</t>
-  </si>
-  <si>
-    <t>JUN</t>
-  </si>
-  <si>
-    <t>Q2'2025</t>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>123</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>123</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>123</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>123</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="24"/>
@@ -283,6 +268,9 @@
       </rPr>
       <t>AA</t>
     </r>
+  </si>
+  <si>
+    <t>CC,AA</t>
   </si>
   <si>
     <r>
@@ -305,6 +293,9 @@
     </r>
   </si>
   <si>
+    <t>DD,BB</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="24"/>
@@ -323,6 +314,12 @@
       </rPr>
       <t>AB</t>
     </r>
+  </si>
+  <si>
+    <t>CD,AB</t>
+  </si>
+  <si>
+    <t>MAY</t>
   </si>
   <si>
     <r>
@@ -414,12 +411,15 @@
       <t>13</t>
     </r>
   </si>
+  <si>
+    <t>JUN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,10 +700,16 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,20 +718,14 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13199,7 +13199,7 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="39.950000000000003" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="25" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="5" customWidth="1"/>
@@ -13208,9 +13208,9 @@
     <col min="25" max="16384" width="24.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="80.099999999999994" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -13235,7 +13235,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -13260,83 +13260,83 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+    <row r="4" spans="1:23" ht="50.1" customHeight="1">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="31">
         <v>14</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="7" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="34"/>
       <c r="C5" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="12" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="41"/>
+    <row r="6" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="35"/>
       <c r="C6" s="16">
         <v>30</v>
       </c>
@@ -13377,26 +13377,26 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>11</v>
+    <row r="7" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="35"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="37"/>
       <c r="J7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -13411,31 +13411,31 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J8" s="4"/>
       <c r="N8" s="4"/>
@@ -13449,26 +13449,26 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="36"/>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="40"/>
       <c r="G9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="39"/>
       <c r="J9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -13481,31 +13481,31 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -13522,29 +13522,29 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>21</v>
+    <row r="11" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="36" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+        <v>27</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -13561,27 +13561,27 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+    <row r="12" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+        <v>29</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -13598,28 +13598,28 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>26</v>
+    <row r="13" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="41" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="35"/>
+        <v>33</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="37"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -13635,26 +13635,26 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+    <row r="14" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="41"/>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="34"/>
+        <v>36</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="39"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -13670,28 +13670,28 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="35"/>
+        <v>40</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="37"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -13707,27 +13707,27 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -13744,33 +13744,33 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>40</v>
+    <row r="17" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -13787,31 +13787,31 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+    <row r="18" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="41"/>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -13828,7 +13828,7 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="17"/>
       <c r="C19" s="4"/>
@@ -13853,7 +13853,7 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="17"/>
       <c r="C20" s="4"/>
@@ -13878,7 +13878,7 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="17"/>
       <c r="C21" s="4"/>
@@ -13903,126 +13903,126 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
+    <row r="22" spans="1:23" ht="50.1" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="31">
         <f>I4+1</f>
         <v>15</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
       <c r="O22" s="30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" s="31">
         <f>I22+1</f>
         <v>16</v>
       </c>
       <c r="Q22" s="29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="30"/>
       <c r="S22" s="30"/>
       <c r="T22" s="30"/>
       <c r="U22" s="30"/>
       <c r="V22" s="30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="31">
         <f>P22+1</f>
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="40"/>
+    <row r="23" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A23" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="34"/>
       <c r="C23" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="6" t="s">
+      <c r="J23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="L23" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="O23" s="6" t="s">
+      <c r="Q23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="S23" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="U23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="24" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="41"/>
+    <row r="24" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A24" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="35"/>
       <c r="C24" s="16">
         <f>+I6+1</f>
         <v>6</v>
@@ -14108,633 +14108,633 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>11</v>
+    <row r="25" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A25" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+    </row>
+    <row r="26" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A26" s="36"/>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="T26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="W26" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A27" s="36"/>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+    </row>
+    <row r="28" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A28" s="36"/>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W28" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A29" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="37"/>
+      <c r="J29" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+    </row>
+    <row r="30" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A30" s="36"/>
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="39"/>
+      <c r="J30" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+    </row>
+    <row r="31" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A31" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U31" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+    </row>
+    <row r="32" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A32" s="41"/>
+      <c r="B32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
+      <c r="G32" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N32" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U32" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
     </row>
-    <row r="26" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="19" t="s">
+    <row r="33" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N33" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="U33" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+    </row>
+    <row r="34" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U34" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+    </row>
+    <row r="35" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A35" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="M26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="R26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="S26" s="16" t="s">
+      <c r="E35" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="T26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="U26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="V26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="W26" s="16" t="s">
-        <v>19</v>
+      <c r="J35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="U35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="W35" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
+    <row r="36" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A36" s="41"/>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q36" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="V36" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="W36" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="R28" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="S28" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="V28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="W28" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-    </row>
-    <row r="30" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-    </row>
-    <row r="31" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N31" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="U31" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-    </row>
-    <row r="32" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N32" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="U32" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-    </row>
-    <row r="33" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N33" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U33" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-    </row>
-    <row r="34" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="U34" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-    </row>
-    <row r="35" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P35" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q35" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="R35" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="S35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="U35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="V35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="W35" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O36" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="P36" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q36" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="R36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="S36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="T36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="V36" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="W36" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -14759,7 +14759,7 @@
       <c r="V37" s="22"/>
       <c r="W37" s="22"/>
     </row>
-    <row r="38" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -14784,7 +14784,7 @@
       <c r="V38" s="22"/>
       <c r="W38" s="22"/>
     </row>
-    <row r="39" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="17"/>
       <c r="C39" s="4"/>
@@ -14809,126 +14809,126 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
+    <row r="40" spans="1:23" ht="50.1" customHeight="1">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="29" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
       <c r="H40" s="30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="31">
         <f>W22+1</f>
         <v>18</v>
       </c>
       <c r="J40" s="29" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
       <c r="M40" s="30"/>
       <c r="N40" s="30"/>
       <c r="O40" s="30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P40" s="31">
         <f>I40+1</f>
         <v>19</v>
       </c>
       <c r="Q40" s="29" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="R40" s="30"/>
       <c r="S40" s="30"/>
       <c r="T40" s="30"/>
       <c r="U40" s="30"/>
       <c r="V40" s="30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W40" s="31">
         <f>P40+1</f>
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="40"/>
+    <row r="41" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A41" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="34"/>
       <c r="C41" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="6" t="s">
+      <c r="J41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="L41" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N41" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="O41" s="6" t="s">
+      <c r="Q41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="S41" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="U41" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="V41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="W41" s="6" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="42" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="41"/>
+    <row r="42" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A42" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="35"/>
       <c r="C42" s="16">
         <f>+W24+1</f>
         <v>27</v>
@@ -15013,695 +15013,695 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
-        <v>11</v>
+    <row r="43" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A43" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+    </row>
+    <row r="44" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A44" s="36"/>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q44" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="R44" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="S44" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="T44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W44" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A45" s="36"/>
+      <c r="B45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" s="12" t="s">
+      <c r="H45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+    </row>
+    <row r="46" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A46" s="36"/>
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R46" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="S46" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="T46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="W46" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A47" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="38"/>
+      <c r="E47" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+    </row>
+    <row r="48" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A48" s="36"/>
+      <c r="B48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="40"/>
+      <c r="E48" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+    </row>
+    <row r="49" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A49" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="38"/>
+      <c r="E49" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H43" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I43" s="12" t="s">
+      <c r="G49" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="39"/>
+      <c r="J49" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J43" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="34" t="s">
+      <c r="N49" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
+      <c r="U49" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
     </row>
-    <row r="44" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="23" t="s">
+    <row r="50" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A50" s="41"/>
+      <c r="B50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="40"/>
+      <c r="E50" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="37"/>
+      <c r="J50" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U50" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+    </row>
+    <row r="51" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="40"/>
+      <c r="E51" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="37"/>
+      <c r="J51" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="U51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+    </row>
+    <row r="52" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N52" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U52" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+    </row>
+    <row r="53" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A53" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="D53" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="16" t="s">
+      <c r="F53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P53" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q53" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R53" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="T53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="U53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="V53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="W53" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A54" s="41"/>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K44" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L44" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q44" s="16" t="s">
+      <c r="E54" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R44" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="S44" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="T44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="U44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="V44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="W44" s="16" t="s">
-        <v>14</v>
+      <c r="F54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q54" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="V54" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="W54" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-    </row>
-    <row r="46" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K46" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L46" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="M46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q46" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="R46" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="S46" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="U46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="V46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="W46" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-    </row>
-    <row r="48" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-    </row>
-    <row r="49" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" s="34"/>
-      <c r="J49" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N49" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="U49" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-    </row>
-    <row r="50" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
-      <c r="B50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="37"/>
-      <c r="E50" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" s="35"/>
-      <c r="J50" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N50" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="U50" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-    </row>
-    <row r="51" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H51" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I51" s="35"/>
-      <c r="J51" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N51" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U51" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-    </row>
-    <row r="52" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N52" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="T52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="U52" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-    </row>
-    <row r="53" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P53" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q53" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="R53" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="S53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="T53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="U53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="V53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="W53" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="N54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O54" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q54" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="R54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="S54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="T54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="V54" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="W54" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A55" s="28"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
@@ -15726,7 +15726,7 @@
       <c r="V55" s="28"/>
       <c r="W55" s="22"/>
     </row>
-    <row r="56" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A56" s="28"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
@@ -15751,7 +15751,7 @@
       <c r="V56" s="28"/>
       <c r="W56" s="22"/>
     </row>
-    <row r="57" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="17"/>
       <c r="C57" s="4"/>
@@ -15776,126 +15776,126 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
+    <row r="58" spans="1:23" ht="50.1" customHeight="1">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="29" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
       <c r="G58" s="30"/>
       <c r="H58" s="30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" s="31">
         <f>W40+1</f>
         <v>21</v>
       </c>
       <c r="J58" s="29" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K58" s="30"/>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
       <c r="N58" s="30"/>
       <c r="O58" s="30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P58" s="31">
         <f>I58+1</f>
         <v>22</v>
       </c>
       <c r="Q58" s="29" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="R58" s="30"/>
       <c r="S58" s="30"/>
       <c r="T58" s="30"/>
       <c r="U58" s="30"/>
       <c r="V58" s="30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W58" s="31">
         <f>P58+1</f>
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="40"/>
+    <row r="59" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A59" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="34"/>
       <c r="C59" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F59" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G59" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="6" t="s">
+      <c r="J59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M59" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N59" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="O59" s="6" t="s">
+      <c r="Q59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R59" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P59" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T59" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="U59" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="V59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="W59" s="6" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="60" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="41"/>
+    <row r="60" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A60" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="35"/>
       <c r="C60" s="16">
         <f>+W42+1</f>
         <v>18</v>
@@ -15980,625 +15980,625 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="38" t="s">
-        <v>11</v>
+    <row r="61" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A61" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="35" t="s">
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+    </row>
+    <row r="62" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A62" s="36"/>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q62" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="R62" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="S62" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="T62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="W62" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A63" s="36"/>
+      <c r="B63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+    </row>
+    <row r="64" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A64" s="36"/>
+      <c r="B64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q64" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="R64" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S64" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="T64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W64" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A65" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+    </row>
+    <row r="66" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A66" s="36"/>
+      <c r="B66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+    </row>
+    <row r="67" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A67" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="35" t="s">
+      <c r="G67" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="35" t="s">
+      <c r="N67" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
+      <c r="U67" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
     </row>
-    <row r="62" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="16" t="s">
+    <row r="68" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A68" s="41"/>
+      <c r="B68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N68" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U68" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+    </row>
+    <row r="69" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G69" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N69" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="U69" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+    </row>
+    <row r="70" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+    </row>
+    <row r="71" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A71" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E62" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" s="16" t="s">
+      <c r="F71" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K62" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L62" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="M62" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N62" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O62" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P62" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q62" s="16" t="s">
+      <c r="J71" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="R62" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="S62" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="T62" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="U62" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="V62" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="W62" s="16" t="s">
-        <v>19</v>
+      <c r="K71" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L71" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N71" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O71" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P71" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q71" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R71" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S71" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="T71" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="U71" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="V71" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="W71" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="36"/>
-      <c r="U63" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="V63" s="34"/>
-      <c r="W63" s="34"/>
+    <row r="72" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A72" s="41"/>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O72" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P72" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q72" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="V72" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="W72" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="64" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
-      <c r="B64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K64" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L64" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M64" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N64" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O64" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P64" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q64" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="R64" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="S64" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="T64" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="U64" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="V64" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="W64" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-    </row>
-    <row r="66" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
-      <c r="B66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-    </row>
-    <row r="67" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G67" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N67" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="U67" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-    </row>
-    <row r="68" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
-      <c r="B68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G68" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N68" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="U68" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="V68" s="34"/>
-      <c r="W68" s="34"/>
-    </row>
-    <row r="69" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G69" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N69" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U69" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-    </row>
-    <row r="70" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-    </row>
-    <row r="71" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I71" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J71" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K71" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P71" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q71" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="R71" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="S71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="T71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="U71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="V71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="W71" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I72" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J72" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L72" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M72" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="N72" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O72" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="P72" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q72" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="R72" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="S72" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="T72" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U72" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="V72" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="W72" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A73" s="28"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
@@ -16623,7 +16623,7 @@
       <c r="V73" s="28"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
@@ -16648,7 +16648,7 @@
       <c r="V74" s="28"/>
       <c r="W74" s="28"/>
     </row>
-    <row r="75" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -16673,126 +16673,126 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
+    <row r="76" spans="1:23" ht="50.1" customHeight="1">
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="29" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="30"/>
       <c r="F76" s="30"/>
       <c r="G76" s="30"/>
       <c r="H76" s="30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" s="31">
         <f>W58+1</f>
         <v>24</v>
       </c>
       <c r="J76" s="29" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K76" s="30"/>
       <c r="L76" s="30"/>
       <c r="M76" s="30"/>
       <c r="N76" s="30"/>
       <c r="O76" s="30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P76" s="31">
         <f>I76+1</f>
         <v>25</v>
       </c>
       <c r="Q76" s="29" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="R76" s="30"/>
       <c r="S76" s="30"/>
       <c r="T76" s="30"/>
       <c r="U76" s="30"/>
       <c r="V76" s="30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W76" s="31">
         <f>P76+1</f>
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="40"/>
+    <row r="77" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A77" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="34"/>
       <c r="C77" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F77" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H77" s="6" t="s">
+      <c r="J77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I77" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="L77" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M77" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P77" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N77" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="O77" s="6" t="s">
+      <c r="Q77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R77" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P77" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q77" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R77" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="S77" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T77" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W77" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="U77" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="V77" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="W77" s="6" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="78" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="41"/>
+    <row r="78" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A78" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="35"/>
       <c r="C78" s="16">
         <f>W60+1</f>
         <v>8</v>
@@ -16878,811 +16878,650 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="38" t="s">
-        <v>11</v>
+    <row r="79" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A79" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="R79" s="38"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="38"/>
+      <c r="U79" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V79" s="39"/>
+      <c r="W79" s="39"/>
+    </row>
+    <row r="80" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A80" s="36"/>
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M80" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N80" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O80" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P80" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q80" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="R80" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S80" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="T80" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U80" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V80" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W80" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A81" s="36"/>
+      <c r="B81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="34" t="s">
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="40"/>
+      <c r="U81" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="37"/>
+      <c r="W81" s="37"/>
+    </row>
+    <row r="82" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A82" s="36"/>
+      <c r="B82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L82" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q82" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="R82" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="S82" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="T82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="W82" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A83" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="R83" s="38"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="V83" s="39"/>
+      <c r="W83" s="39"/>
+    </row>
+    <row r="84" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A84" s="36"/>
+      <c r="B84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="R84" s="40"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="40"/>
+      <c r="U84" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="V84" s="37"/>
+      <c r="W84" s="37"/>
+    </row>
+    <row r="85" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A85" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="34" t="s">
+      <c r="G85" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O79" s="34"/>
-      <c r="P79" s="34"/>
-      <c r="Q79" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R79" s="36"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="34" t="s">
+      <c r="N85" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V79" s="34"/>
-      <c r="W79" s="34"/>
+      <c r="U85" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="V85" s="39"/>
+      <c r="W85" s="39"/>
     </row>
-    <row r="80" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="38"/>
-      <c r="B80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="16" t="s">
+    <row r="86" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A86" s="41"/>
+      <c r="B86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G86" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N86" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U86" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+    </row>
+    <row r="87" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G87" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N87" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="U87" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="V87" s="37"/>
+      <c r="W87" s="37"/>
+    </row>
+    <row r="88" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V88" s="37"/>
+      <c r="W88" s="37"/>
+    </row>
+    <row r="89" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A89" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E80" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" s="16" t="s">
+      <c r="B89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L89" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N89" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O89" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P89" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q89" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R89" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S89" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="T89" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="U89" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="V89" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="W89" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="39.950000000000003" customHeight="1">
+      <c r="A90" s="41"/>
+      <c r="B90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K80" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L80" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M80" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N80" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O80" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P80" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q80" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="R80" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="S80" s="16" t="s">
+      <c r="E90" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="T80" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="U80" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="V80" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="W80" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
-      <c r="B81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="V81" s="35"/>
-      <c r="W81" s="35"/>
-    </row>
-    <row r="82" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D82" s="16" t="s">
+      <c r="F90" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="G90" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H90" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I82" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J82" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K82" s="16" t="s">
+      <c r="I90" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L82" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="M82" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N82" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O82" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P82" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q82" s="16" t="s">
+      <c r="J90" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="R82" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="S82" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="T82" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="U82" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="V82" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="W82" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="O83" s="34"/>
-      <c r="P83" s="34"/>
-      <c r="Q83" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="V83" s="34"/>
-      <c r="W83" s="34"/>
-    </row>
-    <row r="84" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="R84" s="37"/>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="V84" s="35"/>
-      <c r="W84" s="35"/>
-    </row>
-    <row r="85" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G85" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N85" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="O85" s="34"/>
-      <c r="P85" s="34"/>
-      <c r="Q85" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="U85" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="V85" s="34"/>
-      <c r="W85" s="34"/>
-    </row>
-    <row r="86" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G86" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N86" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="U86" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="V86" s="35"/>
-      <c r="W86" s="35"/>
-    </row>
-    <row r="87" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G87" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="K87" s="37"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N87" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="O87" s="35"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="R87" s="37"/>
-      <c r="S87" s="37"/>
-      <c r="T87" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U87" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="V87" s="35"/>
-      <c r="W87" s="35"/>
-    </row>
-    <row r="88" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="O88" s="35"/>
-      <c r="P88" s="35"/>
-      <c r="Q88" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="V88" s="35"/>
-      <c r="W88" s="35"/>
-    </row>
-    <row r="89" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I89" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J89" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K89" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P89" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q89" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="R89" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="S89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="T89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="U89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="V89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="W89" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I90" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J90" s="15" t="s">
-        <v>41</v>
-      </c>
       <c r="K90" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L90" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M90" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N90" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="O90" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="P90" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q90" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R90" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="S90" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="T90" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="U90" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="V90" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W90" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="233">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="Q61:T61"/>
-    <mergeCell ref="U61:W61"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:T63"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="U65:W65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="Q66:T66"/>
-    <mergeCell ref="U66:W66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="Q65:T65"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="Q70:T70"/>
-    <mergeCell ref="U70:W70"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="U69:W69"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="Q79:T79"/>
-    <mergeCell ref="U79:W79"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="Q81:T81"/>
-    <mergeCell ref="U81:W81"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="Q83:T83"/>
-    <mergeCell ref="U83:W83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="Q84:T84"/>
-    <mergeCell ref="U84:W84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="Q88:T88"/>
+    <mergeCell ref="U88:W88"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="Q48:T48"/>
+    <mergeCell ref="Q47:T47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="U52:W52"/>
     <mergeCell ref="U87:W87"/>
     <mergeCell ref="U85:W85"/>
     <mergeCell ref="C86:E86"/>
@@ -17707,30 +17546,191 @@
     <mergeCell ref="Q45:T45"/>
     <mergeCell ref="Q51:S51"/>
     <mergeCell ref="U51:W51"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="Q88:T88"/>
-    <mergeCell ref="U88:W88"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="Q48:T48"/>
-    <mergeCell ref="Q47:T47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="Q83:T83"/>
+    <mergeCell ref="U83:W83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="Q84:T84"/>
+    <mergeCell ref="U84:W84"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="Q79:T79"/>
+    <mergeCell ref="U79:W79"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="Q81:T81"/>
+    <mergeCell ref="U81:W81"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="Q70:T70"/>
+    <mergeCell ref="U70:W70"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="U69:W69"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="Q66:T66"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="Q65:T65"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:T63"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:A3">
     <cfRule type="cellIs" dxfId="1476" priority="362" operator="equal">
